--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_7.xlsx
@@ -482,741 +482,741 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3798278478453875</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2061503344280951</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.154530475556947</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01672710593265303</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6863478422164917</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1988271921873093</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H2" t="n">
-        <v>1.315666913986206</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7243987917900085</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_1</t>
+          <t>model_10_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4534341097397478</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.498002732733674</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.586686808328311</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9901933491848842</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6048874258995056</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>1.071159720420837</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H3" t="n">
-        <v>1.808138728141785</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I3" t="n">
-        <v>1.417974948883057</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_2</t>
+          <t>model_10_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4681971358234618</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.091460308116058</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6092426428057376</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.07986184893525</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5885490775108337</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16898775100708</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H4" t="n">
-        <v>1.833842635154724</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I4" t="n">
-        <v>1.48186206817627</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_3</t>
+          <t>model_10_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4722473290370445</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.763374274352575</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6361421604900535</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.182407263621904</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5840667486190796</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>1.279749035835266</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H5" t="n">
-        <v>1.864496469497681</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5549236536026</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_4</t>
+          <t>model_10_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5471760501737841</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.378139516860138</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6006435025003123</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.230986586202001</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.501142680644989</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>1.381089687347412</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H6" t="n">
-        <v>1.824043273925781</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I6" t="n">
-        <v>1.589535474777222</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_5</t>
+          <t>model_10_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6073028908738938</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.45857101412142</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4552246884802043</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.008900673948394</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4345999658107758</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>1.229503989219666</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H7" t="n">
-        <v>1.658328652381897</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I7" t="n">
-        <v>1.43130350112915</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_22</t>
+          <t>model_10_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G8" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H8" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I8" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_21</t>
+          <t>model_10_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G9" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I9" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_20</t>
+          <t>model_10_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G10" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I10" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_19</t>
+          <t>model_10_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G11" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I11" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_18</t>
+          <t>model_10_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G12" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I12" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_17</t>
+          <t>model_10_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G13" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I13" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_16</t>
+          <t>model_10_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G14" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H14" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I14" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_15</t>
+          <t>model_10_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G15" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I15" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_12</t>
+          <t>model_10_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G16" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H16" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I16" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_13</t>
+          <t>model_10_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G17" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H17" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I17" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_23</t>
+          <t>model_10_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G18" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H18" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I18" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_11</t>
+          <t>model_10_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G19" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I19" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_10</t>
+          <t>model_10_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G20" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H20" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I20" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_9</t>
+          <t>model_10_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G21" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H21" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I21" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_8</t>
+          <t>model_10_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G22" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I22" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_7</t>
+          <t>model_10_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G23" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H23" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I23" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_6</t>
+          <t>model_10_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G24" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H24" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I24" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_14</t>
+          <t>model_10_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G25" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H25" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I25" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.364925739231515</v>
+        <v>0.5777106424950826</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.4205290514794113</v>
+        <v>-7.844374242436931</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.9713150659324712</v>
+        <v>0.2911304283046081</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G26" t="n">
-        <v>1.214066982269287</v>
+        <v>0.4849758744239807</v>
       </c>
       <c r="H26" t="n">
-        <v>1.6187903881073</v>
+        <v>0.4773751497268677</v>
       </c>
       <c r="I26" t="n">
-        <v>1.404524564743042</v>
+        <v>0.4813994765281677</v>
       </c>
     </row>
   </sheetData>
